--- a/気分（きぶん）.xlsx
+++ b/気分（きぶん）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C526279C-40A6-47FD-BD53-DA986A5E93A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1F1A8B-03FE-470B-B16B-D1D7D67595BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人の気持ち" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="314">
   <si>
     <t>面白い</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,10 +664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>そうぞうり</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>創造力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -853,10 +849,6 @@
   </si>
   <si>
     <t>平凡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>へいぼ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1343,6 +1335,10 @@
   </si>
   <si>
     <t>きんべん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へいぼん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1721,10 +1717,10 @@
         <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -1735,10 +1731,10 @@
         <v>124</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -1749,26 +1745,26 @@
         <v>146</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D5" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D6" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -1855,13 +1851,13 @@
         <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -1872,10 +1868,10 @@
         <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -1886,10 +1882,10 @@
         <v>87</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -1900,10 +1896,10 @@
         <v>110</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -1914,10 +1910,10 @@
         <v>126</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -1928,81 +1924,81 @@
         <v>128</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" t="s">
         <v>285</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C18" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2068,10 +2064,10 @@
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>52</v>
@@ -2102,10 +2098,10 @@
         <v>68</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.45">
@@ -2121,42 +2117,42 @@
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.45">
@@ -2169,10 +2165,10 @@
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2313,10 +2309,10 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2330,10 +2326,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2344,10 +2340,10 @@
         <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2358,13 +2354,13 @@
         <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2375,10 +2371,10 @@
         <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2389,13 +2385,13 @@
         <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" t="s">
         <v>232</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G14" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2406,10 +2402,10 @@
         <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2420,10 +2416,10 @@
         <v>85</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2437,10 +2433,10 @@
         <v>90</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2451,10 +2447,10 @@
         <v>105</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2465,10 +2461,10 @@
         <v>112</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2489,10 +2485,10 @@
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2503,7 +2499,7 @@
         <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2516,40 +2512,40 @@
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" t="s">
         <v>207</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C25" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" t="s">
         <v>210</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2562,13 +2558,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0F594E-EEB9-498D-8E84-FC75C69A4039}">
   <dimension ref="A2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2611,10 +2608,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -2622,63 +2619,63 @@
         <v>149</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -2686,98 +2683,98 @@
         <v>149</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2790,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C117D42-D227-4CFD-84AE-93B29B93DFC3}">
   <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2812,10 +2809,10 @@
         <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2843,10 +2840,10 @@
         <v>95</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2857,10 +2854,10 @@
         <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2871,10 +2868,10 @@
         <v>122</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2887,50 +2884,50 @@
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>198</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2943,11 +2940,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC56021F-2D9A-4482-AC46-DF45F03E2A29}">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -2959,18 +2961,18 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -3007,45 +3009,45 @@
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s">
         <v>235</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/気分（きぶん）.xlsx
+++ b/気分（きぶん）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1F1A8B-03FE-470B-B16B-D1D7D67595BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CE3088-4018-47B8-9921-617B638B51BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人の気持ち" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="316">
   <si>
     <t>面白い</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1339,6 +1339,14 @@
   </si>
   <si>
     <t>へいぼん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねっしん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2556,10 +2564,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0F594E-EEB9-498D-8E84-FC75C69A4039}">
-  <dimension ref="A2:E26"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2656,31 +2664,31 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>238</v>
@@ -2688,93 +2696,109 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2940,8 +2964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC56021F-2D9A-4482-AC46-DF45F03E2A29}">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/気分（きぶん）.xlsx
+++ b/気分（きぶん）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CE3088-4018-47B8-9921-617B638B51BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CA1993-BE4F-43A8-9A28-6EDD3F10962F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="12876" windowHeight="10488" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人の気持ち" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="316">
   <si>
     <t>面白い</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2566,7 +2566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0F594E-EEB9-498D-8E84-FC75C69A4039}">
   <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -2962,10 +2962,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC56021F-2D9A-4482-AC46-DF45F03E2A29}">
-  <dimension ref="A2:C13"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3074,6 +3074,14 @@
         <v>305</v>
       </c>
     </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/気分（きぶん）.xlsx
+++ b/気分（きぶん）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CA1993-BE4F-43A8-9A28-6EDD3F10962F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C47BD5-0872-4EF9-83A0-63174B5230D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="12876" windowHeight="10488" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人の気持ち" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="332">
   <si>
     <t>面白い</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1347,6 +1347,69 @@
   </si>
   <si>
     <t>ねっしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真面目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はじめ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短気</t>
+  </si>
+  <si>
+    <t>たんき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>気が長い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きがながい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有耐心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躁脾气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賛成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬佩，佩服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お陰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おかげ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保佑，庇护，托…的福</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1786,7 +1849,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1973,6 +2036,12 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
@@ -2020,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A21B02-ECFE-46F5-94D4-AD9AC3F7C427}">
-  <dimension ref="A2:I14"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2177,6 +2246,58 @@
       </c>
       <c r="B14" s="1" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -2564,10 +2685,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0F594E-EEB9-498D-8E84-FC75C69A4039}">
-  <dimension ref="A2:E28"/>
+  <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2795,9 +2916,17 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -2964,8 +3093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC56021F-2D9A-4482-AC46-DF45F03E2A29}">
   <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/気分（きぶん）.xlsx
+++ b/気分（きぶん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C47BD5-0872-4EF9-83A0-63174B5230D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4F7951-0DA6-433D-8F93-04AD088A4143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人の気持ち" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="352">
   <si>
     <t>面白い</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1410,6 +1410,86 @@
   </si>
   <si>
     <t>保佑，庇护，托…的福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生き生き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いきいき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（生气勃勃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いらいら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苛苛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惜しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急躁地，焦急地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惋惜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（叹气，担心，失望）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我慢強い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がまんつよい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍耐力强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>決心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けっしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謙虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんきょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進んで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すすんで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（积极地）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1487,11 +1567,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1846,10 +1927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2036,12 +2117,6 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
@@ -2079,7 +2154,34 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="C19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>334</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2089,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A21B02-ECFE-46F5-94D4-AD9AC3F7C427}">
-  <dimension ref="A2:I19"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2300,6 +2402,36 @@
         <v>331</v>
       </c>
     </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2308,10 +2440,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571F6B5C-2819-4F31-A4F8-D6830B80CAF8}">
-  <dimension ref="A2:G28"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2544,11 +2676,11 @@
       <c r="B16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>227</v>
+      <c r="E16" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2562,10 +2694,10 @@
         <v>90</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2576,10 +2708,10 @@
         <v>105</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2589,12 +2721,6 @@
       <c r="B19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
@@ -2641,40 +2767,51 @@
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>237</v>
+        <v>208</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>299</v>
+        <v>236</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2685,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0F594E-EEB9-498D-8E84-FC75C69A4039}">
-  <dimension ref="A2:E29"/>
+  <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2928,6 +3065,25 @@
       </c>
       <c r="B29" s="1" t="s">
         <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/気分（きぶん）.xlsx
+++ b/気分（きぶん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4F7951-0DA6-433D-8F93-04AD088A4143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C9327-95C4-412E-AEAF-DAB341218C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人の気持ち" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="354">
   <si>
     <t>面白い</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1490,6 +1490,14 @@
   </si>
   <si>
     <t>（积极地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がまん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1929,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3094,10 +3102,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C117D42-D227-4CFD-84AE-93B29B93DFC3}">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3237,6 +3245,14 @@
       </c>
       <c r="B13" s="1" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/気分（きぶん）.xlsx
+++ b/気分（きぶん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C9327-95C4-412E-AEAF-DAB341218C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCBCB7C-C4D2-425F-B0E3-BED63E6FD344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人の気持ち" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="395">
   <si>
     <t>面白い</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,14 +313,6 @@
   </si>
   <si>
     <t>（懊悔，后悔）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>かくがい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1500,12 +1492,233 @@
     <t>がまん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>うっかり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不注意，心不在焉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うっかりした過ち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>无心之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大脑快速运转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お喋り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしゃべり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱说话的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ガッカリ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がっかり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灰意冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>試合に負けてがっかりする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为比赛失败而心灰意冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体験</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柄良い人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がらよいひと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柄悪い人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がらわるいひと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（本来面目，本色）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>気楽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きらく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>舒畅，舒适）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くどい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冗长乏味，喋喋不休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吝啬）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ケチな奴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吝啬鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自信満々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じしんまんまん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じまん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ストレス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>積極</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せっきょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消極</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうきょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1554,6 +1767,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1575,12 +1803,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1871,60 +2101,60 @@
   <sheetData>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D5" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D6" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1935,10 +2165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F21"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1983,10 +2213,10 @@
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -1997,10 +2227,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2011,184 +2241,195 @@
         <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C18" t="s">
         <v>283</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" t="s">
         <v>349</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C19" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>334</v>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -2199,16 +2440,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A21B02-ECFE-46F5-94D4-AD9AC3F7C427}">
-  <dimension ref="A2:I22"/>
+  <dimension ref="A2:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2251,10 +2495,10 @@
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>52</v>
@@ -2270,76 +2514,82 @@
       <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G5" t="s">
-        <v>63</v>
+      <c r="G5" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>282</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s">
-        <v>108</v>
+      <c r="G7" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.45">
@@ -2352,92 +2602,114 @@
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16" t="s">
         <v>320</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C16" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18" t="s">
         <v>326</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C19" t="s">
         <v>329</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C19" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C21" t="s">
         <v>338</v>
-      </c>
-      <c r="C21" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C26" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2448,10 +2720,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571F6B5C-2819-4F31-A4F8-D6830B80CAF8}">
-  <dimension ref="A2:G29"/>
+  <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2521,10 +2793,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2535,25 +2807,25 @@
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2564,10 +2836,10 @@
         <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2578,10 +2850,10 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2595,10 +2867,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2609,10 +2881,10 @@
         <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2623,13 +2895,13 @@
         <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2640,10 +2912,10 @@
         <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2654,104 +2926,104 @@
         <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" t="s">
         <v>230</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" t="s">
-        <v>90</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2762,64 +3034,114 @@
         <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" t="s">
         <v>205</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" t="s">
         <v>208</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C29" t="s">
-        <v>341</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C30" t="s">
+        <v>353</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C31" t="s">
+        <v>362</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C32" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C33" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -2830,10 +3152,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0F594E-EEB9-498D-8E84-FC75C69A4039}">
-  <dimension ref="A2:E31"/>
+  <dimension ref="A2:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2844,227 +3166,233 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>125</v>
+        <v>385</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>126</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>192</v>
+        <v>219</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>265</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -3077,21 +3405,37 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -3102,10 +3446,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C117D42-D227-4CFD-84AE-93B29B93DFC3}">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3115,32 +3459,32 @@
     <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
         <v>91</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>50</v>
@@ -3149,110 +3493,125 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3263,10 +3622,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC56021F-2D9A-4482-AC46-DF45F03E2A29}">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3276,111 +3635,147 @@
     <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" t="s">
         <v>233</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>247</v>
+        <v>387</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>244</v>
+        <v>269</v>
+      </c>
+      <c r="B14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/気分（きぶん）.xlsx
+++ b/気分（きぶん）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCBCB7C-C4D2-425F-B0E3-BED63E6FD344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D078FC3B-BE9E-4601-9944-32E2E067D7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人の気持ち" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="414">
   <si>
     <t>面白い</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1670,10 +1670,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吝啬鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自信満々</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1694,10 +1690,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>積極</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1711,6 +1703,109 @@
   </si>
   <si>
     <t>しょうきょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退屈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいくつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（无聊，寂寞）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出会い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>であい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どきどき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（stress）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（忐忑不安）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泣き出す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なきだす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悩む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なやむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怠け者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なまけもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>懒汉）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不愉快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふゆかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平気</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へいき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无动于衷，不在于，不介意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2168,7 +2263,7 @@
   <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2355,6 +2450,12 @@
       <c r="B14" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
@@ -2440,10 +2541,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A21B02-ECFE-46F5-94D4-AD9AC3F7C427}">
-  <dimension ref="A2:I26"/>
+  <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2632,83 +2733,94 @@
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>322</v>
+        <v>411</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>323</v>
+        <v>412</v>
+      </c>
+      <c r="C17" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
+      </c>
+      <c r="C20" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C21" t="s">
-        <v>338</v>
+        <v>333</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>359</v>
       </c>
     </row>
@@ -2720,10 +2832,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571F6B5C-2819-4F31-A4F8-D6830B80CAF8}">
-  <dimension ref="A2:G33"/>
+  <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2741,11 +2853,11 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>28</v>
+      <c r="E2" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2758,11 +2870,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
+      <c r="E3" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2773,13 +2885,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2793,10 +2902,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2807,10 +2919,10 @@
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2822,10 +2934,10 @@
       </c>
       <c r="C7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2836,10 +2948,10 @@
         <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2850,10 +2962,10 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2867,10 +2979,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2881,10 +2993,10 @@
         <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2895,13 +3007,10 @@
         <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2912,10 +3021,13 @@
         <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2925,14 +3037,11 @@
       <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" t="s">
-        <v>230</v>
+      <c r="E14" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2943,10 +3052,10 @@
         <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2956,14 +3065,17 @@
       <c r="B16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="E16" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>86</v>
       </c>
@@ -2974,13 +3086,13 @@
         <v>88</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>284</v>
+        <v>216</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>102</v>
       </c>
@@ -2988,45 +3100,72 @@
         <v>103</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="E19" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="E20" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="E21" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="E22" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -3036,16 +3175,28 @@
       <c r="C23" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="E24" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>296</v>
       </c>
@@ -3053,7 +3204,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>203</v>
       </c>
@@ -3064,7 +3215,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>206</v>
       </c>
@@ -3075,7 +3226,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>234</v>
       </c>
@@ -3083,7 +3234,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>224</v>
       </c>
@@ -3094,7 +3245,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>352</v>
       </c>
@@ -3107,11 +3258,8 @@
       <c r="D30" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>360</v>
       </c>
@@ -3124,24 +3272,35 @@
       <c r="D31" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="E31" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>379</v>
       </c>
       <c r="C32" t="s">
         <v>380</v>
       </c>
+      <c r="E32" s="4" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C33" t="s">
-        <v>390</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C34" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3258,10 +3417,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -3432,10 +3591,10 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3622,10 +3781,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC56021F-2D9A-4482-AC46-DF45F03E2A29}">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3633,9 +3792,11 @@
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>381</v>
       </c>
@@ -3645,9 +3806,6 @@
       <c r="D2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E2" t="s">
-        <v>384</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>371</v>
       </c>
@@ -3655,15 +3813,24 @@
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="F3" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>305</v>
       </c>
@@ -3671,7 +3838,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>307</v>
       </c>
@@ -3679,7 +3846,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -3687,7 +3854,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
@@ -3695,7 +3862,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
@@ -3703,7 +3870,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>145</v>
       </c>
@@ -3711,7 +3878,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>231</v>
       </c>
@@ -3722,15 +3889,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>241</v>
       </c>
@@ -3738,7 +3905,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>245</v>
       </c>
@@ -3746,7 +3913,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>269</v>
       </c>
@@ -3754,7 +3921,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>302</v>
       </c>
@@ -3762,7 +3929,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>241</v>
       </c>
@@ -3772,10 +3939,10 @@
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/気分（きぶん）.xlsx
+++ b/気分（きぶん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D078FC3B-BE9E-4601-9944-32E2E067D7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BEA188-ED80-4497-9F68-634DA05A5563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人の気持ち" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="433">
   <si>
     <t>面白い</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1808,12 +1808,155 @@
     <t>无动于衷，不在于，不介意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>悪戯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いたずら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恶作剧）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はなして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>健谈者）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（自由自在）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惨め</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みじめ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>予想外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よそうがい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意料之外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲張り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よくばり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贪得无厌的人）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1876,6 +2019,14 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2260,10 +2411,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F22"/>
+  <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2301,11 +2452,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>32</v>
+      <c r="A4" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>426</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>131</v>
@@ -2315,11 +2466,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
+      <c r="A5" t="s">
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>137</v>
@@ -2330,10 +2481,10 @@
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>213</v>
@@ -2347,10 +2498,10 @@
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>251</v>
@@ -2361,10 +2512,10 @@
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>255</v>
@@ -2375,10 +2526,10 @@
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>257</v>
@@ -2389,10 +2540,10 @@
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>259</v>
@@ -2403,10 +2554,10 @@
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>288</v>
@@ -2417,10 +2568,10 @@
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>286</v>
@@ -2431,10 +2582,10 @@
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>267</v>
+        <v>157</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>292</v>
@@ -2445,10 +2596,10 @@
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>161</v>
+        <v>267</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>396</v>
@@ -2459,34 +2610,34 @@
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="C18" t="s">
         <v>283</v>
@@ -2494,10 +2645,10 @@
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="C19" t="s">
         <v>349</v>
@@ -2505,18 +2656,18 @@
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>347</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>330</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>331</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>332</v>
@@ -2524,13 +2675,32 @@
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -2541,10 +2711,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A21B02-ECFE-46F5-94D4-AD9AC3F7C427}">
-  <dimension ref="A2:I27"/>
+  <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2802,6 +2972,17 @@
         <v>344</v>
       </c>
     </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" t="s">
+        <v>429</v>
+      </c>
+    </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>25</v>
@@ -2822,6 +3003,17 @@
       </c>
       <c r="C27" t="s">
         <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -2832,10 +3024,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571F6B5C-2819-4F31-A4F8-D6830B80CAF8}">
-  <dimension ref="A2:G34"/>
+  <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3203,6 +3395,12 @@
       <c r="B25" s="1" t="s">
         <v>297</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
@@ -3301,6 +3499,17 @@
       </c>
       <c r="C34" t="s">
         <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -3608,7 +3817,7 @@
   <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+      <selection activeCell="C15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3783,8 +3992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC56021F-2D9A-4482-AC46-DF45F03E2A29}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3837,6 +4046,15 @@
       <c r="B4" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">

--- a/気分（きぶん）.xlsx
+++ b/気分（きぶん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BEA188-ED80-4497-9F68-634DA05A5563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADB50FA-CD36-4AA6-BCCF-3A10861EE79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人の気持ち" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="434">
   <si>
     <t>面白い</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1949,6 +1949,10 @@
       </rPr>
       <t>贪得无厌的人）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无聊，乏味</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2711,10 +2715,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A21B02-ECFE-46F5-94D4-AD9AC3F7C427}">
-  <dimension ref="A2:I28"/>
+  <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2974,45 +2978,56 @@
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C24" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>357</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>358</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>419</v>
       </c>
     </row>
@@ -3992,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC56021F-2D9A-4482-AC46-DF45F03E2A29}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/気分（きぶん）.xlsx
+++ b/気分（きぶん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADB50FA-CD36-4AA6-BCCF-3A10861EE79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A17D02-0559-4A02-991B-B5EE3FE72F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人の気持ち" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="446">
   <si>
     <t>面白い</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1953,6 +1953,54 @@
   </si>
   <si>
     <t>无聊，乏味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暢気</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のんき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穏やか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おだやか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平静，温和，安详</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんじゅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鈍感力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どんかんりょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体調</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（からだ）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2344,7 +2392,7 @@
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2415,10 +2463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F24"/>
+  <dimension ref="A2:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2707,6 +2755,14 @@
         <v>421</v>
       </c>
     </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2715,10 +2771,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A21B02-ECFE-46F5-94D4-AD9AC3F7C427}">
-  <dimension ref="A2:I29"/>
+  <dimension ref="A2:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2834,6 +2890,12 @@
       <c r="B8" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
@@ -2998,36 +3060,47 @@
         <v>429</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>356</v>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C26" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>357</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>358</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C29" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>419</v>
       </c>
     </row>
@@ -3041,8 +3114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571F6B5C-2819-4F31-A4F8-D6830B80CAF8}">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3537,8 +3610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0F594E-EEB9-498D-8E84-FC75C69A4039}">
   <dimension ref="A2:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3829,10 +3902,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C117D42-D227-4CFD-84AE-93B29B93DFC3}">
-  <dimension ref="A2:G14"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="A15:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3956,6 +4029,15 @@
       <c r="B9" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
@@ -3995,6 +4077,14 @@
       </c>
       <c r="B14" s="1" t="s">
         <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/気分（きぶん）.xlsx
+++ b/気分（きぶん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A17D02-0559-4A02-991B-B5EE3FE72F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96D1AA6-BCA5-4B28-9784-EA5D809800CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人の気持ち" sheetId="7" r:id="rId1"/>
@@ -3905,7 +3905,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/気分（きぶん）.xlsx
+++ b/気分（きぶん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96D1AA6-BCA5-4B28-9784-EA5D809800CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F7F1BE-E365-4D06-B236-3D396FD73C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="276" yWindow="660" windowWidth="11628" windowHeight="11304" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人の気持ち" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="452">
   <si>
     <t>面白い</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2002,6 +2002,29 @@
   <si>
     <t>（からだ）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考え方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんがえかた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見え方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みえかた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人に世界の見え方があり、一人一人に替えのきかない心がある。</t>
   </si>
 </sst>
 </file>
@@ -2773,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A21B02-ECFE-46F5-94D4-AD9AC3F7C427}">
   <dimension ref="A2:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2904,6 +2927,12 @@
       <c r="B9" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
@@ -2911,6 +2940,15 @@
       </c>
       <c r="B10" s="1" t="s">
         <v>184</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I10" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.45">
@@ -3114,9 +3152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571F6B5C-2819-4F31-A4F8-D6830B80CAF8}">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3321,7 +3357,7 @@
         <v>410</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -3610,8 +3646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0F594E-EEB9-498D-8E84-FC75C69A4039}">
   <dimension ref="A2:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3904,7 +3940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C117D42-D227-4CFD-84AE-93B29B93DFC3}">
   <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/気分（きぶん）.xlsx
+++ b/気分（きぶん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F7F1BE-E365-4D06-B236-3D396FD73C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D0F271-AAAC-477F-96F7-6B3A5EA30B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="660" windowWidth="11628" windowHeight="11304" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人の気持ち" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="465">
   <si>
     <t>面白い</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2026,12 +2026,64 @@
   <si>
     <t>人人に世界の見え方があり、一人一人に替えのきかない心がある。</t>
   </si>
+  <si>
+    <t>専行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>興味がない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうみがない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（不感兴趣）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偉そう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えらそう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅惑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みわく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>びっくり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十分満足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうぶんまんぞく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2103,6 +2155,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2124,7 +2183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2132,6 +2191,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2486,10 +2546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F25"/>
+  <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2690,6 +2750,12 @@
       <c r="B15" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
@@ -2784,6 +2850,14 @@
       </c>
       <c r="B25" s="1" t="s">
         <v>435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -2794,10 +2868,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A21B02-ECFE-46F5-94D4-AD9AC3F7C427}">
-  <dimension ref="A2:I30"/>
+  <dimension ref="A2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3142,6 +3216,14 @@
         <v>419</v>
       </c>
     </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3150,9 +3232,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571F6B5C-2819-4F31-A4F8-D6830B80CAF8}">
-  <dimension ref="A2:G35"/>
+  <dimension ref="A2:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3636,6 +3720,17 @@
         <v>416</v>
       </c>
     </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3647,7 +3742,7 @@
   <dimension ref="A2:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B35"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4131,10 +4226,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC56021F-2D9A-4482-AC46-DF45F03E2A29}">
-  <dimension ref="A2:H17"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4249,58 +4344,74 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>386</v>
+      <c r="A11" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>387</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>242</v>
+        <v>386</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>245</v>
+        <v>457</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>246</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B14" t="s">
-        <v>270</v>
+        <v>241</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>242</v>
+        <v>269</v>
+      </c>
+      <c r="B16" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>392</v>
       </c>
     </row>

--- a/気分（きぶん）.xlsx
+++ b/気分（きぶん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D0F271-AAAC-477F-96F7-6B3A5EA30B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60A1425-010D-42A2-8D12-4EA5C67D0E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人の気持ち" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="487">
   <si>
     <t>面白い</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -981,10 +981,6 @@
   </si>
   <si>
     <t>ひにく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（嘲笑）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2078,12 +2074,123 @@
     <t>じゅうぶんまんぞく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>予想は継がない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（嘲笑，讽刺）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快楽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいらく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快楽主義｜かいらくしゅぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇気</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆうき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僕には関係ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼくにはかんけいない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和我没关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愚か</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おろか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうげん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臆病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おくびょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>胆小）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんげん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘言で人を釣る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用好听的话引诱人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふさぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2162,6 +2269,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2183,7 +2296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2192,6 +2305,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2546,10 +2660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F26"/>
+  <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2588,10 +2702,10 @@
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>131</v>
@@ -2639,10 +2753,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2653,10 +2767,10 @@
         <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2667,10 +2781,10 @@
         <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2681,10 +2795,10 @@
         <v>108</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2695,10 +2809,10 @@
         <v>124</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2709,10 +2823,10 @@
         <v>126</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2723,24 +2837,24 @@
         <v>158</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="D14" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2751,10 +2865,10 @@
         <v>162</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2767,40 +2881,40 @@
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="C18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="C19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2811,53 +2925,64 @@
         <v>85</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="C22" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>376</v>
+        <v>466</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>422</v>
+        <v>467</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -2868,10 +2993,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A21B02-ECFE-46F5-94D4-AD9AC3F7C427}">
-  <dimension ref="A2:I31"/>
+  <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2923,10 +3048,10 @@
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>52</v>
@@ -2943,10 +3068,10 @@
         <v>49</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.45">
@@ -2974,10 +3099,10 @@
         <v>106</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.45">
@@ -2988,10 +3113,10 @@
         <v>168</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.45">
@@ -3002,10 +3127,10 @@
         <v>170</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.45">
@@ -3016,13 +3141,13 @@
         <v>184</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" t="s">
         <v>450</v>
-      </c>
-      <c r="I10" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.45">
@@ -3035,10 +3160,10 @@
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.45">
@@ -3051,177 +3176,202 @@
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="C15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
         <v>319</v>
-      </c>
-      <c r="C16" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
         <v>412</v>
-      </c>
-      <c r="C17" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
         <v>325</v>
-      </c>
-      <c r="C19" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="s">
         <v>328</v>
-      </c>
-      <c r="C20" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="C22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="C24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" t="s">
         <v>428</v>
       </c>
-      <c r="C25" t="s">
-        <v>429</v>
-      </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>436</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C26" t="s">
-        <v>438</v>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>435</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>436</v>
       </c>
       <c r="C28" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C29" t="s">
-        <v>359</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>417</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>419</v>
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C31" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>462</v>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C34" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -3234,8 +3384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571F6B5C-2819-4F31-A4F8-D6830B80CAF8}">
   <dimension ref="A2:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3254,10 +3404,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -3438,10 +3588,10 @@
         <v>59</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -3472,7 +3622,7 @@
         <v>229</v>
       </c>
       <c r="G16" t="s">
-        <v>230</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -3500,10 +3650,10 @@
         <v>103</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -3514,10 +3664,10 @@
         <v>110</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -3528,10 +3678,10 @@
         <v>118</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -3542,13 +3692,13 @@
         <v>128</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -3559,10 +3709,10 @@
         <v>151</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -3590,24 +3740,24 @@
         <v>103</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="E25" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -3620,6 +3770,12 @@
       <c r="C26" t="s">
         <v>205</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
@@ -3634,10 +3790,10 @@
     </row>
     <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
@@ -3648,87 +3804,87 @@
         <v>225</v>
       </c>
       <c r="C29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C30" t="s">
         <v>352</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" t="s">
         <v>361</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C32" t="s">
         <v>379</v>
       </c>
-      <c r="C32" t="s">
-        <v>380</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="6" t="s">
         <v>415</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -3739,10 +3895,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0F594E-EEB9-498D-8E84-FC75C69A4039}">
-  <dimension ref="A2:E33"/>
+  <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3751,7 +3907,7 @@
     <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>96</v>
       </c>
@@ -3765,7 +3921,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>113</v>
       </c>
@@ -3773,21 +3929,33 @@
         <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D4" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>135</v>
       </c>
@@ -3795,31 +3963,31 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>155</v>
       </c>
@@ -3827,7 +3995,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>176</v>
       </c>
@@ -3835,7 +4003,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>177</v>
       </c>
@@ -3843,15 +4011,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>123</v>
       </c>
@@ -3859,7 +4027,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>185</v>
       </c>
@@ -3867,7 +4035,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>201</v>
       </c>
@@ -3875,12 +4043,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -3888,7 +4056,7 @@
         <v>147</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -3899,7 +4067,7 @@
         <v>219</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -3912,117 +4080,125 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>390</v>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -4033,10 +4209,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C117D42-D227-4CFD-84AE-93B29B93DFC3}">
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4102,10 +4278,10 @@
         <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -4116,10 +4292,10 @@
         <v>120</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -4130,10 +4306,10 @@
         <v>134</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -4144,13 +4320,13 @@
         <v>154</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -4161,13 +4337,13 @@
         <v>179</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -4183,7 +4359,7 @@
         <v>194</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -4204,18 +4380,26 @@
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>442</v>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -4226,10 +4410,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC56021F-2D9A-4482-AC46-DF45F03E2A29}">
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4241,24 +4425,24 @@
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -4266,41 +4450,47 @@
         <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="F5" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -4308,7 +4498,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
@@ -4316,7 +4506,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
@@ -4324,7 +4514,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>145</v>
       </c>
@@ -4332,87 +4522,99 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" t="s">
         <v>232</v>
       </c>
-      <c r="C10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" t="s">
         <v>269</v>
       </c>
-      <c r="B16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>392</v>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/気分（きぶん）.xlsx
+++ b/気分（きぶん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60A1425-010D-42A2-8D12-4EA5C67D0E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D3CB76-7974-45B6-B8BF-517BC37FF3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人の気持ち" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="505">
   <si>
     <t>面白い</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2183,6 +2183,78 @@
   </si>
   <si>
     <t>ふさぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退廃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいはい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むりょくかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無力感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんらん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（心烦意乱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むちゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無茶なくて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使命感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しめいかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふたん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無敵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むてき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2589,7 +2661,7 @@
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2660,10 +2732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F27"/>
+  <dimension ref="A2:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2985,6 +3057,22 @@
         <v>463</v>
       </c>
     </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2993,10 +3081,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A21B02-ECFE-46F5-94D4-AD9AC3F7C427}">
-  <dimension ref="A2:I34"/>
+  <dimension ref="A2:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3374,6 +3462,18 @@
         <v>473</v>
       </c>
     </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3382,10 +3482,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571F6B5C-2819-4F31-A4F8-D6830B80CAF8}">
-  <dimension ref="A2:G36"/>
+  <dimension ref="A2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3779,112 +3879,158 @@
     </row>
     <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>206</v>
+        <v>490</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" t="s">
-        <v>208</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C29" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>352</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>361</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B32" s="1" t="s">
+      <c r="E33" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B34" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>379</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>455</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/気分（きぶん）.xlsx
+++ b/気分（きぶん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D3CB76-7974-45B6-B8BF-517BC37FF3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C0BCD4-D0F2-4B34-94B1-BA1B4467F76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人の気持ち" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="514">
   <si>
     <t>面白い</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2255,6 +2255,61 @@
   </si>
   <si>
     <t>むてき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詫び</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>惆怅，寂寞）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卑怯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひきょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多忙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうきしん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2661,7 +2716,7 @@
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3083,8 +3138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A21B02-ECFE-46F5-94D4-AD9AC3F7C427}">
   <dimension ref="A2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A44" sqref="A43:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3471,8 +3526,12 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>511</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3482,10 +3541,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571F6B5C-2819-4F31-A4F8-D6830B80CAF8}">
-  <dimension ref="A2:G41"/>
+  <dimension ref="A2:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4033,6 +4092,17 @@
         <v>502</v>
       </c>
     </row>
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4041,10 +4111,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0F594E-EEB9-498D-8E84-FC75C69A4039}">
-  <dimension ref="A2:G34"/>
+  <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4345,6 +4415,14 @@
       </c>
       <c r="B34" s="1" t="s">
         <v>470</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -4556,10 +4634,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC56021F-2D9A-4482-AC46-DF45F03E2A29}">
-  <dimension ref="A2:Q20"/>
+  <dimension ref="A2:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4763,6 +4841,14 @@
         <v>480</v>
       </c>
     </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
